--- a/doc/journal.xlsx
+++ b/doc/journal.xlsx
@@ -1331,6 +1331,7 @@
     </row>
     <row r="3" ht="18" customHeight="1">
       <c r="A3" s="9">
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
